--- a/data/trans_orig/P44C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2182F2-AC57-44DF-9FF8-F29A69C5DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E607B92-9358-4024-B4EA-DB357AB867AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0A8D4C2-FAA2-4331-B6D6-2D9D10EE1EE9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1641BEF-A6CC-48A2-AC9A-CF633C17B441}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="576">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>84,07%</t>
   </si>
   <si>
     <t>Me lo sugirió mi médico de cabecera</t>
@@ -118,9 +118,6 @@
     <t>37,65%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
     <t>Lo solicité yo mismo/a</t>
   </si>
   <si>
@@ -130,7 +127,7 @@
     <t>20,82%</t>
   </si>
   <si>
-    <t>83,97%</t>
+    <t>80,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,7 +139,7 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>35,7%</t>
+    <t>36,07%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -151,79 +148,79 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>14,55%</t>
+    <t>20,0%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>46,49%</t>
+    <t>46,46%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>50,52%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>47,08%</t>
+    <t>39,74%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>45,92%</t>
+    <t>39,24%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -232,1471 +229,1462 @@
     <t>8,89%</t>
   </si>
   <si>
-    <t>37,39%</t>
+    <t>38,96%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>13,27%</t>
+    <t>13,21%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>18,83%</t>
+    <t>17,77%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
   </si>
   <si>
     <t>47,43%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>4,23%</t>
@@ -1705,76 +1693,79 @@
     <t>22,84%</t>
   </si>
   <si>
-    <t>16,25%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
   </si>
   <si>
     <t>53,75%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>52,94%</t>
   </si>
   <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>24,0%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>15,98%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95E6B95-192D-4796-802E-DBC979AEDC8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4B444-471E-4E0A-80C0-4A80DAB023D1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2448,13 +2439,13 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2478,7 +2469,7 @@
         <v>1016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -2493,13 +2484,13 @@
         <v>1015</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2505,13 @@
         <v>1685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2529,13 +2520,13 @@
         <v>3192</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2544,18 +2535,18 @@
         <v>4876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2567,13 +2558,13 @@
         <v>953</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2588,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2597,13 +2588,13 @@
         <v>953</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2609,13 @@
         <v>2093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2633,13 +2624,13 @@
         <v>6000</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2648,13 +2639,13 @@
         <v>8093</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2660,13 @@
         <v>8344</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2684,13 +2675,13 @@
         <v>5109</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -2699,19 +2690,19 @@
         <v>13454</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -2720,13 +2711,13 @@
         <v>2126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2735,13 +2726,13 @@
         <v>2007</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2750,13 +2741,13 @@
         <v>4133</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2762,13 @@
         <v>13516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2786,13 +2777,13 @@
         <v>13116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -2801,18 +2792,18 @@
         <v>26632</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2824,13 +2815,13 @@
         <v>2431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2839,13 +2830,13 @@
         <v>1117</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2854,13 +2845,13 @@
         <v>3549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2866,13 @@
         <v>6540</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -2890,13 +2881,13 @@
         <v>12741</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -2905,13 +2896,13 @@
         <v>19281</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2917,13 @@
         <v>12971</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2941,13 +2932,13 @@
         <v>16899</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -2956,19 +2947,19 @@
         <v>29869</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -2977,13 +2968,13 @@
         <v>5405</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2992,13 +2983,13 @@
         <v>6629</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3007,13 +2998,13 @@
         <v>12034</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3019,13 @@
         <v>27347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -3043,13 +3034,13 @@
         <v>37386</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3058,18 +3049,18 @@
         <v>64733</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3087,7 +3078,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3096,13 +3087,13 @@
         <v>4272</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3111,13 +3102,13 @@
         <v>4272</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3123,13 @@
         <v>10540</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3147,13 +3138,13 @@
         <v>7808</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3162,13 +3153,13 @@
         <v>18348</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3174,13 @@
         <v>14910</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3198,13 +3189,13 @@
         <v>11537</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -3213,19 +3204,19 @@
         <v>26447</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
@@ -3234,13 +3225,13 @@
         <v>3174</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3249,13 +3240,13 @@
         <v>3788</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3264,13 +3255,13 @@
         <v>6962</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3276,13 @@
         <v>28624</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -3300,13 +3291,13 @@
         <v>27406</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3315,18 +3306,18 @@
         <v>56030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3338,13 +3329,13 @@
         <v>2032</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3353,13 +3344,13 @@
         <v>956</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3368,13 +3359,13 @@
         <v>2988</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3380,13 @@
         <v>8060</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3404,13 +3395,13 @@
         <v>9013</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -3419,13 +3410,13 @@
         <v>17073</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3431,13 @@
         <v>25656</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -3455,13 +3446,13 @@
         <v>10939</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -3470,19 +3461,19 @@
         <v>36594</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
@@ -3491,13 +3482,13 @@
         <v>4669</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -3506,13 +3497,13 @@
         <v>8054</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -3521,13 +3512,13 @@
         <v>12723</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3533,13 @@
         <v>40416</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -3557,13 +3548,13 @@
         <v>28962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>61</v>
@@ -3572,13 +3563,13 @@
         <v>69378</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3586,13 @@
         <v>5416</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3610,13 +3601,13 @@
         <v>6346</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3625,13 +3616,13 @@
         <v>11761</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3637,13 @@
         <v>28142</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3661,13 +3652,13 @@
         <v>36677</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -3676,13 +3667,13 @@
         <v>64819</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3688,13 @@
         <v>62656</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
@@ -3712,13 +3703,13 @@
         <v>45545</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>97</v>
@@ -3727,19 +3718,19 @@
         <v>108201</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>14</v>
@@ -3748,13 +3739,13 @@
         <v>15373</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -3763,13 +3754,13 @@
         <v>21494</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -3778,13 +3769,13 @@
         <v>36867</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3790,13 @@
         <v>111587</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>100</v>
@@ -3814,13 +3805,13 @@
         <v>110061</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33" s="7">
         <v>196</v>
@@ -3829,18 +3820,18 @@
         <v>221648</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45D06E4-9934-4789-B981-E8A4EC480952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE79237-8B23-4FB0-AA04-CEFA977CCCD2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3878,7 +3869,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3991,7 +3982,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4006,7 +3997,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4021,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4027,13 @@
         <v>3099</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4057,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4066,13 +4057,13 @@
         <v>3099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4078,13 @@
         <v>2033</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4105,10 +4096,10 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4117,19 +4108,19 @@
         <v>6117</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -4138,13 +4129,13 @@
         <v>3124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4159,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4168,13 +4159,13 @@
         <v>3124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4180,13 @@
         <v>8256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4204,13 +4195,13 @@
         <v>4084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4219,18 +4210,18 @@
         <v>12340</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4248,7 +4239,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4257,13 +4248,13 @@
         <v>1126</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4272,13 +4263,13 @@
         <v>1126</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4284,13 @@
         <v>5271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4308,13 +4299,13 @@
         <v>9311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4323,13 +4314,13 @@
         <v>14582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4335,13 @@
         <v>13907</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4359,13 +4350,13 @@
         <v>10186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4374,19 +4365,19 @@
         <v>24092</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -4395,13 +4386,13 @@
         <v>4267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4416,7 +4407,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4425,13 +4416,13 @@
         <v>4267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4437,13 @@
         <v>23446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4461,13 +4452,13 @@
         <v>20623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4476,18 +4467,18 @@
         <v>44068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4499,13 +4490,13 @@
         <v>2882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4514,13 +4505,13 @@
         <v>1153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4529,13 +4520,13 @@
         <v>4035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4541,13 @@
         <v>4507</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4565,13 +4556,13 @@
         <v>5497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -4580,13 +4571,13 @@
         <v>10003</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4592,13 @@
         <v>25817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4616,13 +4607,13 @@
         <v>24605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4631,19 +4622,19 @@
         <v>50421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -4652,13 +4643,13 @@
         <v>7094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4667,13 +4658,13 @@
         <v>2421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4682,13 +4673,13 @@
         <v>9515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4694,13 @@
         <v>40300</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4718,13 +4709,13 @@
         <v>33675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4733,18 +4724,18 @@
         <v>73974</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4756,13 +4747,13 @@
         <v>2197</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4777,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4786,13 +4777,13 @@
         <v>2197</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4798,13 @@
         <v>9329</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4822,13 +4813,13 @@
         <v>8172</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -4837,13 +4828,13 @@
         <v>17501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4849,13 @@
         <v>17045</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -4873,13 +4864,13 @@
         <v>5623</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -4888,19 +4879,19 @@
         <v>22668</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>4</v>
@@ -4909,13 +4900,13 @@
         <v>4103</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4924,13 +4915,13 @@
         <v>6507</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4939,13 +4930,13 @@
         <v>10610</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4951,13 @@
         <v>32674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4975,13 +4966,13 @@
         <v>20302</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -4990,18 +4981,18 @@
         <v>52976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5013,13 +5004,13 @@
         <v>6730</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5028,13 +5019,13 @@
         <v>3428</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5043,13 +5034,13 @@
         <v>10158</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5055,13 @@
         <v>7905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5079,13 +5070,13 @@
         <v>10828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -5094,13 +5085,13 @@
         <v>18734</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5106,13 @@
         <v>29296</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5130,13 +5121,13 @@
         <v>15534</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -5145,19 +5136,19 @@
         <v>44830</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7">
         <v>11</v>
@@ -5166,13 +5157,13 @@
         <v>12285</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -5181,13 +5172,13 @@
         <v>6796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -5196,13 +5187,13 @@
         <v>19081</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5208,13 @@
         <v>56216</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -5232,13 +5223,13 @@
         <v>36587</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -5247,13 +5238,13 @@
         <v>92803</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5261,13 @@
         <v>11809</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5285,13 +5276,13 @@
         <v>5707</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -5300,13 +5291,13 @@
         <v>17516</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5312,13 @@
         <v>30111</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -5336,13 +5327,13 @@
         <v>33808</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -5351,13 +5342,13 @@
         <v>63919</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5363,13 @@
         <v>88097</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H31" s="7">
         <v>52</v>
@@ -5387,13 +5378,13 @@
         <v>60032</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M31" s="7">
         <v>136</v>
@@ -5402,19 +5393,19 @@
         <v>148129</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>29</v>
@@ -5423,13 +5414,13 @@
         <v>30875</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -5438,13 +5429,13 @@
         <v>15723</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>167</v>
+        <v>376</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M32" s="7">
         <v>42</v>
@@ -5453,13 +5444,13 @@
         <v>46598</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5465,13 @@
         <v>160892</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>99</v>
@@ -5489,13 +5480,13 @@
         <v>115270</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33" s="7">
         <v>254</v>
@@ -5504,18 +5495,18 @@
         <v>276162</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5536,7 +5527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFBFEEF-251C-4454-904D-E77403AE227A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CD9970-E05F-435D-9984-E0A8F86CB9E5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5553,7 +5544,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5666,7 +5657,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5675,13 +5666,13 @@
         <v>392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5690,13 +5681,13 @@
         <v>392</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5702,13 @@
         <v>5706</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5726,13 +5717,13 @@
         <v>9545</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5741,13 +5732,13 @@
         <v>15252</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,10 +5753,10 @@
         <v>9267</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>397</v>
@@ -5804,7 +5795,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -5849,7 +5840,7 @@
         <v>410</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5855,13 @@
         <v>15464</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -5879,13 +5870,13 @@
         <v>18960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -5894,18 +5885,18 @@
         <v>34425</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5917,13 +5908,13 @@
         <v>2218</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5932,13 +5923,13 @@
         <v>846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5947,13 +5938,13 @@
         <v>3064</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5959,13 @@
         <v>10372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>421</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -5983,13 +5974,13 @@
         <v>23373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -5998,13 +5989,13 @@
         <v>33745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6010,13 @@
         <v>45820</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -6034,13 +6025,13 @@
         <v>38683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -6049,19 +6040,19 @@
         <v>84503</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>29</v>
@@ -6070,13 +6061,13 @@
         <v>23393</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -6085,13 +6076,13 @@
         <v>23068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M12" s="7">
         <v>72</v>
@@ -6100,13 +6091,13 @@
         <v>46461</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6112,13 @@
         <v>81803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -6136,13 +6127,13 @@
         <v>85970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>280</v>
@@ -6151,18 +6142,18 @@
         <v>167773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6174,13 +6165,13 @@
         <v>5367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6189,13 +6180,13 @@
         <v>2543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -6204,13 +6195,13 @@
         <v>7910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6216,13 @@
         <v>37816</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>253</v>
+        <v>454</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -6240,13 +6231,13 @@
         <v>29869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>455</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -6255,13 +6246,13 @@
         <v>67685</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>459</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,7 +6309,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
@@ -6378,13 +6369,13 @@
         <v>200209</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>233</v>
@@ -6393,13 +6384,13 @@
         <v>141660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>415</v>
@@ -6408,18 +6399,18 @@
         <v>341869</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6434,10 +6425,10 @@
         <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6446,13 +6437,13 @@
         <v>4766</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6461,13 +6452,13 @@
         <v>8301</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6473,13 @@
         <v>30802</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -6497,13 +6488,13 @@
         <v>18303</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -6512,13 +6503,13 @@
         <v>49104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6524,13 @@
         <v>49428</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -6548,13 +6539,13 @@
         <v>37574</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>496</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -6563,19 +6554,19 @@
         <v>87001</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>31</v>
@@ -6584,13 +6575,13 @@
         <v>28687</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -6599,13 +6590,13 @@
         <v>17351</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -6614,13 +6605,13 @@
         <v>46038</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6626,13 @@
         <v>112452</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>134</v>
@@ -6650,13 +6641,13 @@
         <v>77993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>263</v>
@@ -6665,18 +6656,18 @@
         <v>190444</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6688,13 +6679,13 @@
         <v>7259</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -6703,13 +6694,13 @@
         <v>8489</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -6718,13 +6709,13 @@
         <v>15748</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6730,13 @@
         <v>51587</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="H25" s="7">
         <v>87</v>
@@ -6754,13 +6745,13 @@
         <v>49931</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -6769,13 +6760,13 @@
         <v>101518</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6781,13 @@
         <v>92307</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -6805,13 +6796,13 @@
         <v>99698</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M26" s="7">
         <v>274</v>
@@ -6820,19 +6811,19 @@
         <v>192005</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>538</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7">
         <v>47</v>
@@ -6841,13 +6832,13 @@
         <v>35570</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H27" s="7">
         <v>39</v>
@@ -6856,13 +6847,13 @@
         <v>24712</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M27" s="7">
         <v>86</v>
@@ -6871,13 +6862,13 @@
         <v>60282</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6883,13 @@
         <v>186724</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>293</v>
@@ -6907,13 +6898,13 @@
         <v>182830</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>538</v>
@@ -6922,13 +6913,13 @@
         <v>369554</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6936,13 @@
         <v>18379</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -6960,13 +6951,13 @@
         <v>17036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>548</v>
+        <v>125</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -6975,13 +6966,13 @@
         <v>35415</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>551</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6987,13 @@
         <v>136283</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="H30" s="7">
         <v>236</v>
@@ -7011,13 +7002,13 @@
         <v>131022</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M30" s="7">
         <v>400</v>
@@ -7026,13 +7017,13 @@
         <v>267305</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7038,13 @@
         <v>320720</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H31" s="7">
         <v>444</v>
@@ -7062,13 +7053,13 @@
         <v>263753</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M31" s="7">
         <v>793</v>
@@ -7077,19 +7068,19 @@
         <v>584474</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>149</v>
@@ -7098,13 +7089,13 @@
         <v>121269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>327</v>
+        <v>569</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H32" s="7">
         <v>158</v>
@@ -7113,13 +7104,13 @@
         <v>95603</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>575</v>
+        <v>293</v>
       </c>
       <c r="M32" s="7">
         <v>307</v>
@@ -7128,13 +7119,13 @@
         <v>216873</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7140,13 @@
         <v>596652</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>867</v>
@@ -7164,13 +7155,13 @@
         <v>507414</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33" s="7">
         <v>1553</v>
@@ -7179,18 +7170,18 @@
         <v>1104066</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E607B92-9358-4024-B4EA-DB357AB867AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62086A2F-33FB-4E52-8427-EAB7730A677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1641BEF-A6CC-48A2-AC9A-CF633C17B441}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F11DCD9C-724E-4A25-BB2E-F183F761DAC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="577">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Me lo sugirió otro médico del servicio privado</t>
@@ -103,7 +103,7 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>84,07%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>Me lo sugirió mi médico de cabecera</t>
@@ -118,6 +118,9 @@
     <t>37,65%</t>
   </si>
   <si>
+    <t>81,32%</t>
+  </si>
+  <si>
     <t>Lo solicité yo mismo/a</t>
   </si>
   <si>
@@ -127,19 +130,19 @@
     <t>20,82%</t>
   </si>
   <si>
-    <t>80,51%</t>
+    <t>83,97%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>36,07%</t>
+    <t>36,84%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -148,184 +151,178 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>20,5%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>46,46%</t>
+    <t>45,93%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>50,52%</t>
   </si>
   <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -334,1429 +331,1435 @@
     <t>15,59%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>21,59%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
   </si>
   <si>
     <t>19,64%</t>
@@ -2177,7 +2180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4B444-471E-4E0A-80C0-4A80DAB023D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106E8ADD-D142-4424-A873-C7BF95A6B9B6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2439,13 +2442,13 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2469,7 +2472,7 @@
         <v>1016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -2484,13 +2487,13 @@
         <v>1015</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2508,13 @@
         <v>1685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2520,13 +2523,13 @@
         <v>3192</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2535,18 +2538,18 @@
         <v>4876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2558,13 +2561,13 @@
         <v>953</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2579,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2588,13 +2591,13 @@
         <v>953</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2612,13 @@
         <v>2093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2624,13 +2627,13 @@
         <v>6000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2639,13 +2642,13 @@
         <v>8093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2663,13 @@
         <v>8344</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2675,13 +2678,13 @@
         <v>5109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -2690,19 +2693,19 @@
         <v>13454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -2711,13 +2714,13 @@
         <v>2126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2726,13 +2729,13 @@
         <v>2007</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2741,13 +2744,13 @@
         <v>4133</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2765,13 @@
         <v>13516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2777,13 +2780,13 @@
         <v>13116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -2792,18 +2795,18 @@
         <v>26632</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2815,13 +2818,13 @@
         <v>2431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2830,13 +2833,13 @@
         <v>1117</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2845,13 +2848,13 @@
         <v>3549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,7 +2962,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -2968,13 +2971,13 @@
         <v>5405</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2983,13 +2986,13 @@
         <v>6629</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2998,13 +3001,13 @@
         <v>12034</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3022,13 @@
         <v>27347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -3034,13 +3037,13 @@
         <v>37386</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3049,18 +3052,18 @@
         <v>64733</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3078,7 +3081,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3087,13 +3090,13 @@
         <v>4272</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3102,13 +3105,13 @@
         <v>4272</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3126,13 @@
         <v>10540</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3138,13 +3141,13 @@
         <v>7808</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3153,13 +3156,13 @@
         <v>18348</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3177,13 @@
         <v>14910</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3189,13 +3192,13 @@
         <v>11537</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -3204,19 +3207,19 @@
         <v>26447</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
@@ -3225,13 +3228,13 @@
         <v>3174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3240,13 +3243,13 @@
         <v>3788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3255,13 +3258,13 @@
         <v>6962</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3279,13 @@
         <v>28624</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -3291,13 +3294,13 @@
         <v>27406</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3306,18 +3309,18 @@
         <v>56030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3329,13 +3332,13 @@
         <v>2032</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3344,13 +3347,13 @@
         <v>956</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3359,13 +3362,13 @@
         <v>2988</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3383,13 @@
         <v>8060</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3395,13 +3398,13 @@
         <v>9013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -3410,13 +3413,13 @@
         <v>17073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3434,13 @@
         <v>25656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -3446,13 +3449,13 @@
         <v>10939</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -3461,19 +3464,19 @@
         <v>36594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
         <v>4</v>
@@ -3482,13 +3485,13 @@
         <v>4669</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -3497,13 +3500,13 @@
         <v>8054</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -3512,13 +3515,13 @@
         <v>12723</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3536,13 @@
         <v>40416</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -3548,13 +3551,13 @@
         <v>28962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28" s="7">
         <v>61</v>
@@ -3563,13 +3566,13 @@
         <v>69378</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3589,13 @@
         <v>5416</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3601,13 +3604,13 @@
         <v>6346</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3616,13 +3619,13 @@
         <v>11761</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3640,13 @@
         <v>28142</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3652,13 +3655,13 @@
         <v>36677</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -3667,13 +3670,13 @@
         <v>64819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3691,13 @@
         <v>62656</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
@@ -3703,13 +3706,13 @@
         <v>45545</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M31" s="7">
         <v>97</v>
@@ -3718,19 +3721,19 @@
         <v>108201</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
         <v>14</v>
@@ -3739,13 +3742,13 @@
         <v>15373</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -3754,13 +3757,13 @@
         <v>21494</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -3769,13 +3772,13 @@
         <v>36867</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3793,13 @@
         <v>111587</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" s="7">
         <v>100</v>
@@ -3805,13 +3808,13 @@
         <v>110061</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33" s="7">
         <v>196</v>
@@ -3820,18 +3823,18 @@
         <v>221648</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE79237-8B23-4FB0-AA04-CEFA977CCCD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F91A7-2A09-4D88-8D62-92A53AD7BF4B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3869,7 +3872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3982,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3997,7 +4000,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4012,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4030,13 @@
         <v>3099</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4048,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4057,13 +4060,13 @@
         <v>3099</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4081,13 @@
         <v>2033</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4096,10 +4099,10 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4108,10 +4111,10 @@
         <v>6117</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>212</v>
@@ -4120,7 +4123,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -4150,7 +4153,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4180,13 +4183,13 @@
         <v>8256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4195,13 +4198,13 @@
         <v>4084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4210,18 +4213,18 @@
         <v>12340</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4305,7 +4308,7 @@
         <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4314,13 +4317,13 @@
         <v>14582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4338,13 @@
         <v>13907</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4350,13 +4353,13 @@
         <v>10186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4365,19 +4368,19 @@
         <v>24092</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -4386,13 +4389,13 @@
         <v>4267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4407,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4416,13 +4419,13 @@
         <v>4267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4440,13 @@
         <v>23446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4452,13 +4455,13 @@
         <v>20623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4467,18 +4470,18 @@
         <v>44068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4490,13 +4493,13 @@
         <v>2882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4505,13 +4508,13 @@
         <v>1153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4520,13 +4523,13 @@
         <v>4035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4544,13 @@
         <v>4507</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4556,13 +4559,13 @@
         <v>5497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -4571,13 +4574,13 @@
         <v>10003</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4595,13 @@
         <v>25817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4607,13 +4610,13 @@
         <v>24605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4622,19 +4625,19 @@
         <v>50421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -4643,13 +4646,13 @@
         <v>7094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4658,13 +4661,13 @@
         <v>2421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4673,13 +4676,13 @@
         <v>9515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4697,13 @@
         <v>40300</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4709,13 +4712,13 @@
         <v>33675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4724,18 +4727,18 @@
         <v>73974</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4747,13 +4750,13 @@
         <v>2197</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4768,7 +4771,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4777,13 +4780,13 @@
         <v>2197</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4801,13 @@
         <v>9329</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4813,13 +4816,13 @@
         <v>8172</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -4828,13 +4831,13 @@
         <v>17501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4852,13 @@
         <v>17045</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -4864,13 +4867,13 @@
         <v>5623</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -4879,19 +4882,19 @@
         <v>22668</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7">
         <v>4</v>
@@ -4900,13 +4903,13 @@
         <v>4103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4915,10 +4918,10 @@
         <v>6507</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>309</v>
@@ -4933,10 +4936,10 @@
         <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4954,13 @@
         <v>32674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4966,13 +4969,13 @@
         <v>20302</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -4981,18 +4984,18 @@
         <v>52976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5007,10 +5010,10 @@
         <v>312</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5088,10 +5091,10 @@
         <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5109,13 @@
         <v>29296</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5121,13 +5124,13 @@
         <v>15534</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -5136,19 +5139,19 @@
         <v>44830</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
         <v>11</v>
@@ -5208,13 +5211,13 @@
         <v>56216</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -5223,13 +5226,13 @@
         <v>36587</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -5238,13 +5241,13 @@
         <v>92803</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,10 +5267,10 @@
         <v>346</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5276,13 +5279,13 @@
         <v>5707</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -5291,13 +5294,13 @@
         <v>17516</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5315,13 @@
         <v>30111</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -5327,13 +5330,13 @@
         <v>33808</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -5342,13 +5345,13 @@
         <v>63919</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>363</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5366,13 @@
         <v>88097</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H31" s="7">
         <v>52</v>
@@ -5378,13 +5381,13 @@
         <v>60032</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M31" s="7">
         <v>136</v>
@@ -5393,19 +5396,19 @@
         <v>148129</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
         <v>29</v>
@@ -5414,13 +5417,13 @@
         <v>30875</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>373</v>
+        <v>75</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -5429,13 +5432,13 @@
         <v>15723</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>377</v>
+        <v>276</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M32" s="7">
         <v>42</v>
@@ -5444,13 +5447,13 @@
         <v>46598</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5468,13 @@
         <v>160892</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" s="7">
         <v>99</v>
@@ -5480,13 +5483,13 @@
         <v>115270</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33" s="7">
         <v>254</v>
@@ -5495,18 +5498,18 @@
         <v>276162</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5527,7 +5530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CD9970-E05F-435D-9984-E0A8F86CB9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCC50DF-CECA-4077-98E3-82272A7DA1C1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5544,7 +5547,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5657,7 +5660,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5666,13 +5669,13 @@
         <v>392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5681,7 +5684,7 @@
         <v>392</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -5702,13 +5705,13 @@
         <v>5706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5717,13 +5720,13 @@
         <v>9545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5732,13 +5735,13 @@
         <v>15252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5756,13 @@
         <v>9267</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5768,13 +5771,13 @@
         <v>7485</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5783,19 +5786,19 @@
         <v>16753</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -5804,13 +5807,13 @@
         <v>491</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5819,13 +5822,13 @@
         <v>1538</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5834,13 +5837,13 @@
         <v>2029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5858,13 @@
         <v>15464</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -5870,13 +5873,13 @@
         <v>18960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -5885,18 +5888,18 @@
         <v>34425</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5908,13 +5911,13 @@
         <v>2218</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5923,13 +5926,13 @@
         <v>846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5938,13 +5941,13 @@
         <v>3064</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5962,13 @@
         <v>10372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -5974,13 +5977,13 @@
         <v>23373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -5989,13 +5992,13 @@
         <v>33745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6013,13 @@
         <v>45820</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -6025,13 +6028,13 @@
         <v>38683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -6040,19 +6043,19 @@
         <v>84503</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>29</v>
@@ -6061,13 +6064,13 @@
         <v>23393</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -6076,13 +6079,13 @@
         <v>23068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M12" s="7">
         <v>72</v>
@@ -6091,13 +6094,13 @@
         <v>46461</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6115,13 @@
         <v>81803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -6127,13 +6130,13 @@
         <v>85970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="7">
         <v>280</v>
@@ -6142,18 +6145,18 @@
         <v>167773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6165,13 +6168,13 @@
         <v>5367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6180,13 +6183,13 @@
         <v>2543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -6195,13 +6198,13 @@
         <v>7910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6219,13 @@
         <v>37816</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -6231,13 +6234,13 @@
         <v>29869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -6246,13 +6249,13 @@
         <v>67685</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>236</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6270,13 @@
         <v>123898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>132</v>
@@ -6282,13 +6285,13 @@
         <v>80313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>224</v>
@@ -6297,19 +6300,19 @@
         <v>204211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7">
         <v>41</v>
@@ -6318,13 +6321,13 @@
         <v>33128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -6333,13 +6336,13 @@
         <v>28934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -6348,13 +6351,13 @@
         <v>62063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6372,13 @@
         <v>200209</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7">
         <v>233</v>
@@ -6384,13 +6387,13 @@
         <v>141660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7">
         <v>415</v>
@@ -6399,18 +6402,18 @@
         <v>341869</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6422,13 +6425,13 @@
         <v>3535</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6437,13 +6440,13 @@
         <v>4766</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6452,13 +6455,13 @@
         <v>8301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6476,13 @@
         <v>30802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -6488,13 +6491,13 @@
         <v>18303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -6503,13 +6506,13 @@
         <v>49104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6527,13 @@
         <v>49428</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -6539,13 +6542,13 @@
         <v>37574</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -6554,19 +6557,19 @@
         <v>87001</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7">
         <v>31</v>
@@ -6575,13 +6578,13 @@
         <v>28687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -6590,13 +6593,13 @@
         <v>17351</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -6605,13 +6608,13 @@
         <v>46038</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6629,13 @@
         <v>112452</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>134</v>
@@ -6641,13 +6644,13 @@
         <v>77993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>263</v>
@@ -6656,18 +6659,18 @@
         <v>190444</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6679,13 +6682,13 @@
         <v>7259</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -6694,13 +6697,13 @@
         <v>8489</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -6709,13 +6712,13 @@
         <v>15748</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6733,13 @@
         <v>51587</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>87</v>
@@ -6745,13 +6748,13 @@
         <v>49931</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -6760,13 +6763,13 @@
         <v>101518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6784,13 @@
         <v>92307</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -6796,13 +6799,13 @@
         <v>99698</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M26" s="7">
         <v>274</v>
@@ -6811,19 +6814,19 @@
         <v>192005</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
         <v>47</v>
@@ -6832,13 +6835,13 @@
         <v>35570</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H27" s="7">
         <v>39</v>
@@ -6847,13 +6850,13 @@
         <v>24712</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M27" s="7">
         <v>86</v>
@@ -6862,13 +6865,13 @@
         <v>60282</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6886,13 @@
         <v>186724</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" s="7">
         <v>293</v>
@@ -6898,13 +6901,13 @@
         <v>182830</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28" s="7">
         <v>538</v>
@@ -6913,13 +6916,13 @@
         <v>369554</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6939,13 @@
         <v>18379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>542</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>101</v>
+        <v>543</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -6951,7 +6954,7 @@
         <v>17036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>125</v>
+        <v>545</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>546</v>
@@ -6966,13 +6969,13 @@
         <v>35415</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>548</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6990,13 @@
         <v>136283</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H30" s="7">
         <v>236</v>
@@ -7002,13 +7005,13 @@
         <v>131022</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M30" s="7">
         <v>400</v>
@@ -7017,13 +7020,13 @@
         <v>267305</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7041,13 @@
         <v>320720</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H31" s="7">
         <v>444</v>
@@ -7053,13 +7056,13 @@
         <v>263753</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M31" s="7">
         <v>793</v>
@@ -7068,19 +7071,19 @@
         <v>584474</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
         <v>149</v>
@@ -7089,13 +7092,13 @@
         <v>121269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H32" s="7">
         <v>158</v>
@@ -7104,13 +7107,13 @@
         <v>95603</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>572</v>
+        <v>324</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>293</v>
+        <v>573</v>
       </c>
       <c r="M32" s="7">
         <v>307</v>
@@ -7119,13 +7122,13 @@
         <v>216873</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7143,13 @@
         <v>596652</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" s="7">
         <v>867</v>
@@ -7155,13 +7158,13 @@
         <v>507414</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33" s="7">
         <v>1553</v>
@@ -7170,18 +7173,18 @@
         <v>1104066</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62086A2F-33FB-4E52-8427-EAB7730A677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65512CD2-4AC8-4212-947E-E365581561DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F11DCD9C-724E-4A25-BB2E-F183F761DAC3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8552B213-BF0A-47EB-B801-B0AD57BCCAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="579">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>84,59%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>Me lo sugirió mi médico de cabecera</t>
@@ -118,7 +118,7 @@
     <t>37,65%</t>
   </si>
   <si>
-    <t>81,32%</t>
+    <t>80,69%</t>
   </si>
   <si>
     <t>Lo solicité yo mismo/a</t>
@@ -142,7 +142,7 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>36,84%</t>
+    <t>35,7%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -151,1543 +151,1552 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>20,5%</t>
+    <t>14,55%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>45,93%</t>
+    <t>46,49%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,33%</t>
   </si>
   <si>
     <t>4,23%</t>
@@ -1696,79 +1705,76 @@
     <t>22,84%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>16,25%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>53,75%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
   </si>
   <si>
     <t>52,94%</t>
   </si>
   <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>24,0%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>21,59%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106E8ADD-D142-4424-A873-C7BF95A6B9B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492AF33-7485-4182-BCBC-6B3425620468}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2854,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2875,13 @@
         <v>6540</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -2884,13 +2890,13 @@
         <v>12741</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -2899,13 +2905,13 @@
         <v>19281</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2926,13 @@
         <v>12971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2935,13 +2941,13 @@
         <v>16899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -2950,13 +2956,13 @@
         <v>29869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2977,13 @@
         <v>5405</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2986,13 +2992,13 @@
         <v>6629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3001,13 +3007,13 @@
         <v>12034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3069,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3081,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3090,13 +3096,13 @@
         <v>4272</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3105,13 +3111,13 @@
         <v>4272</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3132,13 @@
         <v>10540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3141,13 +3147,13 @@
         <v>7808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3156,13 +3162,13 @@
         <v>18348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3183,13 @@
         <v>14910</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3192,13 +3198,13 @@
         <v>11537</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -3207,13 +3213,13 @@
         <v>26447</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3234,13 @@
         <v>3174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3243,13 +3249,13 @@
         <v>3788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3258,13 +3264,13 @@
         <v>6962</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3326,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3332,13 +3338,13 @@
         <v>2032</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3347,13 +3353,13 @@
         <v>956</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -3362,13 +3368,13 @@
         <v>2988</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3389,13 @@
         <v>8060</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3398,13 +3404,13 @@
         <v>9013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -3413,13 +3419,13 @@
         <v>17073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3440,13 @@
         <v>25656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -3449,13 +3455,13 @@
         <v>10939</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -3464,13 +3470,13 @@
         <v>36594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3491,13 @@
         <v>4669</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -3500,13 +3506,13 @@
         <v>8054</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -3515,13 +3521,13 @@
         <v>12723</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3595,13 @@
         <v>5416</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3604,13 +3610,13 @@
         <v>6346</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3619,13 +3625,13 @@
         <v>11761</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3646,13 @@
         <v>28142</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3655,13 +3661,13 @@
         <v>36677</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -3670,13 +3676,13 @@
         <v>64819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3697,13 @@
         <v>62656</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
@@ -3706,13 +3712,13 @@
         <v>45545</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>97</v>
@@ -3721,13 +3727,13 @@
         <v>108201</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3748,13 @@
         <v>15373</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -3757,13 +3763,13 @@
         <v>21494</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -3772,13 +3778,13 @@
         <v>36867</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,7 +3840,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +3861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F91A7-2A09-4D88-8D62-92A53AD7BF4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542B0773-B6E2-469D-8CE8-6A2479F643B9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3872,7 +3878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3985,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4000,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4015,7 +4021,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4036,13 @@
         <v>3099</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4051,7 +4057,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4060,13 +4066,13 @@
         <v>3099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4087,13 @@
         <v>2033</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4099,7 +4105,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -4111,13 +4117,13 @@
         <v>6117</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4138,13 @@
         <v>3124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4153,7 +4159,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4162,13 +4168,13 @@
         <v>3124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4248,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4251,13 +4257,13 @@
         <v>1126</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4266,13 +4272,13 @@
         <v>1126</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4293,13 @@
         <v>5271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4302,13 +4308,13 @@
         <v>9311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4317,13 +4323,13 @@
         <v>14582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4344,13 @@
         <v>13907</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4353,13 +4359,13 @@
         <v>10186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4368,13 +4374,13 @@
         <v>24092</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4395,13 @@
         <v>4267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4410,7 +4416,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4419,13 +4425,13 @@
         <v>4267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4499,13 @@
         <v>2882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4508,13 +4514,13 @@
         <v>1153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4523,13 +4529,13 @@
         <v>4035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4550,13 @@
         <v>4507</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4559,13 +4565,13 @@
         <v>5497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -4574,13 +4580,13 @@
         <v>10003</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4601,13 @@
         <v>25817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4610,13 +4616,13 @@
         <v>24605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4625,13 +4631,13 @@
         <v>50421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4652,13 @@
         <v>7094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4661,13 +4667,13 @@
         <v>2421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4676,13 +4682,13 @@
         <v>9515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,7 +4744,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4750,13 +4756,13 @@
         <v>2197</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4771,7 +4777,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4780,13 +4786,13 @@
         <v>2197</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4807,13 @@
         <v>9329</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4816,13 +4822,13 @@
         <v>8172</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -4831,13 +4837,13 @@
         <v>17501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,10 +4927,10 @@
         <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4933,13 +4939,13 @@
         <v>10610</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>172</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +5001,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5007,13 +5013,13 @@
         <v>6730</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5022,13 +5028,13 @@
         <v>3428</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5037,13 +5043,13 @@
         <v>10158</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5064,13 @@
         <v>7905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5073,13 +5079,13 @@
         <v>10828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -5088,13 +5094,13 @@
         <v>18734</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5115,13 @@
         <v>29296</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5124,13 +5130,13 @@
         <v>15534</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -5139,13 +5145,13 @@
         <v>44830</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5166,13 @@
         <v>12285</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -5175,13 +5181,13 @@
         <v>6796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -5190,13 +5196,13 @@
         <v>19081</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5270,13 @@
         <v>11809</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5279,13 +5285,13 @@
         <v>5707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -5294,13 +5300,13 @@
         <v>17516</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5321,13 @@
         <v>30111</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -5330,13 +5336,13 @@
         <v>33808</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -5345,13 +5351,13 @@
         <v>63919</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>104</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5372,13 @@
         <v>88097</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H31" s="7">
         <v>52</v>
@@ -5381,13 +5387,13 @@
         <v>60032</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M31" s="7">
         <v>136</v>
@@ -5396,13 +5402,13 @@
         <v>148129</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5423,13 @@
         <v>30875</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -5432,13 +5438,13 @@
         <v>15723</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M32" s="7">
         <v>42</v>
@@ -5447,13 +5453,13 @@
         <v>46598</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5515,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5530,7 +5536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCC50DF-CECA-4077-98E3-82272A7DA1C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658028AC-1043-471E-9B5F-71CA530CDD43}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5547,7 +5553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5660,7 +5666,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5669,13 +5675,13 @@
         <v>392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5684,13 +5690,13 @@
         <v>392</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5711,13 @@
         <v>5706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5720,13 +5726,13 @@
         <v>9545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5735,13 +5741,13 @@
         <v>15252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5762,13 @@
         <v>9267</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5771,13 +5777,13 @@
         <v>7485</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5786,13 +5792,13 @@
         <v>16753</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5813,13 @@
         <v>491</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5822,13 +5828,13 @@
         <v>1538</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5837,13 +5843,13 @@
         <v>2029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>405</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5917,13 @@
         <v>2218</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5926,13 +5932,13 @@
         <v>846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5941,13 +5947,13 @@
         <v>3064</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5968,13 @@
         <v>10372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -5977,13 +5983,13 @@
         <v>23373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -5992,13 +5998,13 @@
         <v>33745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6019,13 @@
         <v>45820</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -6028,13 +6034,13 @@
         <v>38683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -6043,13 +6049,13 @@
         <v>84503</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6070,13 @@
         <v>23393</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -6079,13 +6085,13 @@
         <v>23068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M12" s="7">
         <v>72</v>
@@ -6094,13 +6100,13 @@
         <v>46461</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6174,13 @@
         <v>5367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6183,13 +6189,13 @@
         <v>2543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -6198,13 +6204,13 @@
         <v>7910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6225,13 @@
         <v>37816</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>449</v>
+        <v>253</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -6234,13 +6240,13 @@
         <v>29869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>455</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -6249,13 +6255,13 @@
         <v>67685</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6276,13 @@
         <v>123898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>132</v>
@@ -6285,13 +6291,13 @@
         <v>80313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>224</v>
@@ -6300,13 +6306,13 @@
         <v>204211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6327,13 @@
         <v>33128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -6336,13 +6342,13 @@
         <v>28934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -6351,13 +6357,13 @@
         <v>62063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,7 +6419,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6425,13 +6431,13 @@
         <v>3535</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6440,13 +6446,13 @@
         <v>4766</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6455,13 +6461,13 @@
         <v>8301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6482,13 @@
         <v>30802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -6491,13 +6497,13 @@
         <v>18303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -6506,13 +6512,13 @@
         <v>49104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6533,13 @@
         <v>49428</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -6542,13 +6548,13 @@
         <v>37574</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>492</v>
+        <v>328</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -6557,13 +6563,13 @@
         <v>87001</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6584,13 @@
         <v>28687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -6593,13 +6599,13 @@
         <v>17351</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -6608,13 +6614,13 @@
         <v>46038</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,7 +6676,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6682,13 +6688,13 @@
         <v>7259</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -6697,13 +6703,13 @@
         <v>8489</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>222</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -6712,13 +6718,13 @@
         <v>15748</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6739,13 @@
         <v>51587</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="H25" s="7">
         <v>87</v>
@@ -6748,13 +6754,13 @@
         <v>49931</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -6763,13 +6769,13 @@
         <v>101518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6790,13 @@
         <v>92307</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -6799,13 +6805,13 @@
         <v>99698</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M26" s="7">
         <v>274</v>
@@ -6814,13 +6820,13 @@
         <v>192005</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6841,13 @@
         <v>35570</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>535</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H27" s="7">
         <v>39</v>
@@ -6850,13 +6856,13 @@
         <v>24712</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M27" s="7">
         <v>86</v>
@@ -6865,13 +6871,13 @@
         <v>60282</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>541</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6945,13 @@
         <v>18379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -6954,13 +6960,13 @@
         <v>17036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -6969,13 +6975,13 @@
         <v>35415</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6996,13 @@
         <v>136283</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="H30" s="7">
         <v>236</v>
@@ -7005,13 +7011,13 @@
         <v>131022</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M30" s="7">
         <v>400</v>
@@ -7020,13 +7026,13 @@
         <v>267305</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7047,13 @@
         <v>320720</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H31" s="7">
         <v>444</v>
@@ -7056,13 +7062,13 @@
         <v>263753</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M31" s="7">
         <v>793</v>
@@ -7071,13 +7077,13 @@
         <v>584474</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7098,13 @@
         <v>121269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>570</v>
+        <v>327</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H32" s="7">
         <v>158</v>
@@ -7107,13 +7113,13 @@
         <v>95603</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>324</v>
+        <v>574</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M32" s="7">
         <v>307</v>
@@ -7122,13 +7128,13 @@
         <v>216873</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,7 +7190,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
